--- a/Reports/stores-sellers.xlsx
+++ b/Reports/stores-sellers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="1045">
   <si>
     <t>Κατάστημα</t>
   </si>
@@ -31,111 +31,168 @@
     <t>Υπεύθυνος επικοινωνίας / internet</t>
   </si>
   <si>
+    <t>Central</t>
+  </si>
+  <si>
+    <t>Click Inside</t>
+  </si>
+  <si>
+    <t>Boutique Electric</t>
+  </si>
+  <si>
     <t>Apothema</t>
   </si>
   <si>
+    <t>Stechi</t>
+  </si>
+  <si>
     <t>ElectroStudio</t>
   </si>
   <si>
     <t>TechFace</t>
   </si>
   <si>
-    <t>Central</t>
+    <t>Smart Cart</t>
+  </si>
+  <si>
+    <t>5050</t>
+  </si>
+  <si>
+    <t>Orizonstore</t>
   </si>
   <si>
     <t>Energy</t>
   </si>
   <si>
+    <t>Proton Power &amp; Light</t>
+  </si>
+  <si>
+    <t>Spithas</t>
+  </si>
+  <si>
     <t>Electric Shop</t>
   </si>
   <si>
+    <t>ShopHere</t>
+  </si>
+  <si>
+    <t>Klapstores</t>
+  </si>
+  <si>
+    <t>Just One</t>
+  </si>
+  <si>
+    <t>Allintech</t>
+  </si>
+  <si>
+    <t>Cosmodata</t>
+  </si>
+  <si>
+    <t>Plus3</t>
+  </si>
+  <si>
+    <t>inBox</t>
+  </si>
+  <si>
+    <t>Shop13</t>
+  </si>
+  <si>
+    <t>AllStock</t>
+  </si>
+  <si>
+    <t>Shop365</t>
+  </si>
+  <si>
+    <t>Alexopoulos Electronics</t>
+  </si>
+  <si>
+    <t>Market24</t>
+  </si>
+  <si>
+    <t>CarPlace</t>
+  </si>
+  <si>
+    <t>Tzorakis</t>
+  </si>
+  <si>
+    <t>Offerstore</t>
+  </si>
+  <si>
+    <t>Cosmo-market</t>
+  </si>
+  <si>
+    <t>247home</t>
+  </si>
+  <si>
+    <t>Somon</t>
+  </si>
+  <si>
+    <t>Guaranty</t>
+  </si>
+  <si>
+    <t>Schinas-electric</t>
+  </si>
+  <si>
+    <t>Trelokalathi</t>
+  </si>
+  <si>
+    <t>Acron Shop</t>
+  </si>
+  <si>
+    <t>Homelove</t>
+  </si>
+  <si>
+    <t>Storeio</t>
+  </si>
+  <si>
+    <t>YoloHome</t>
+  </si>
+  <si>
+    <t>Endless</t>
+  </si>
+  <si>
+    <t>iCart Shop</t>
+  </si>
+  <si>
+    <t>Shophere Multistore</t>
+  </si>
+  <si>
+    <t>Squel</t>
+  </si>
+  <si>
+    <t>Electric Supplies Store</t>
+  </si>
+  <si>
+    <t>Maniastore</t>
+  </si>
+  <si>
+    <t>LoveU</t>
+  </si>
+  <si>
+    <t>Fotia</t>
+  </si>
+  <si>
+    <t>Mad Market</t>
+  </si>
+  <si>
     <t>Mrtoner</t>
   </si>
   <si>
-    <t>ShopHere</t>
-  </si>
-  <si>
-    <t>Just One</t>
-  </si>
-  <si>
-    <t>Boutique Electric</t>
-  </si>
-  <si>
-    <t>Allintech</t>
-  </si>
-  <si>
-    <t>inBox</t>
-  </si>
-  <si>
-    <t>Shop13</t>
-  </si>
-  <si>
-    <t>Shop365</t>
-  </si>
-  <si>
-    <t>CarPlace</t>
-  </si>
-  <si>
-    <t>Offerstore</t>
-  </si>
-  <si>
-    <t>Cosmo-market</t>
-  </si>
-  <si>
-    <t>Somon</t>
+    <t>Stop&amp;Shop</t>
+  </si>
+  <si>
+    <t>El-shop</t>
+  </si>
+  <si>
+    <t>Smart-Tech</t>
+  </si>
+  <si>
+    <t>TheGadget</t>
   </si>
   <si>
     <t>Snatch</t>
   </si>
   <si>
-    <t>Guaranty</t>
-  </si>
-  <si>
-    <t>Schinas-electric</t>
-  </si>
-  <si>
-    <t>Trelokalathi</t>
-  </si>
-  <si>
-    <t>Acron Shop</t>
-  </si>
-  <si>
-    <t>Storeio</t>
-  </si>
-  <si>
-    <t>Endless</t>
-  </si>
-  <si>
-    <t>iCart Shop</t>
-  </si>
-  <si>
-    <t>Smart Cart</t>
-  </si>
-  <si>
-    <t>Shophere Multistore</t>
-  </si>
-  <si>
-    <t>Squel</t>
-  </si>
-  <si>
-    <t>LoveU</t>
-  </si>
-  <si>
-    <t>Fotia</t>
-  </si>
-  <si>
-    <t>Mad Market</t>
-  </si>
-  <si>
-    <t>El-shop</t>
-  </si>
-  <si>
-    <t>Smart-Tech</t>
-  </si>
-  <si>
-    <t>TheGadget</t>
-  </si>
-  <si>
     <t>Lifestore</t>
   </si>
   <si>
@@ -163,18 +220,36 @@
     <t>Esmarket</t>
   </si>
   <si>
+    <t>E-Felekis</t>
+  </si>
+  <si>
+    <t>E-orfanos</t>
+  </si>
+  <si>
+    <t>Allmarket</t>
+  </si>
+  <si>
+    <t>Electrocrete</t>
+  </si>
+  <si>
+    <t>GsTecSystem</t>
+  </si>
+  <si>
+    <t>Electrofox</t>
+  </si>
+  <si>
+    <t>Allsmart</t>
+  </si>
+  <si>
+    <t>Uprice multistore</t>
+  </si>
+  <si>
     <t>Led24</t>
   </si>
   <si>
     <t>Bestprice4u</t>
   </si>
   <si>
-    <t>Plus3</t>
-  </si>
-  <si>
-    <t>E-Felekis</t>
-  </si>
-  <si>
     <t>E-theodoulidis</t>
   </si>
   <si>
@@ -184,9 +259,6 @@
     <t>ΜΙΧΑΗΛΙΔΗΣ ΦΩΤΙΣΜΟΣ</t>
   </si>
   <si>
-    <t>Maniastore</t>
-  </si>
-  <si>
     <t>Euragora</t>
   </si>
   <si>
@@ -223,9 +295,6 @@
     <t>1stcoffee</t>
   </si>
   <si>
-    <t>Klapstores</t>
-  </si>
-  <si>
     <t>Studio Mao</t>
   </si>
   <si>
@@ -235,42 +304,24 @@
     <t>Techstores</t>
   </si>
   <si>
-    <t>Allsmart</t>
-  </si>
-  <si>
     <t>Ergo-Horeca</t>
   </si>
   <si>
     <t>BarbaStore</t>
   </si>
   <si>
-    <t>Electrocrete</t>
-  </si>
-  <si>
     <t>Dileris</t>
   </si>
   <si>
     <t>MegaMarkt</t>
   </si>
   <si>
-    <t>Cosmodata</t>
-  </si>
-  <si>
-    <t>Market24</t>
-  </si>
-  <si>
-    <t>YoloHome</t>
-  </si>
-  <si>
     <t>Clubelectrocosmos</t>
   </si>
   <si>
     <t>Techcosmos</t>
   </si>
   <si>
-    <t>Stop&amp;Shop</t>
-  </si>
-  <si>
     <t>E-Box</t>
   </si>
   <si>
@@ -313,9 +364,6 @@
     <t>JKazakos</t>
   </si>
   <si>
-    <t>Allmarket</t>
-  </si>
-  <si>
     <t>PriveShop</t>
   </si>
   <si>
@@ -328,27 +376,15 @@
     <t>eshopexpress</t>
   </si>
   <si>
-    <t>Electrofox</t>
-  </si>
-  <si>
     <t>DiogeniStore</t>
   </si>
   <si>
     <t>MacD</t>
   </si>
   <si>
-    <t>Stechi</t>
-  </si>
-  <si>
-    <t>5050</t>
-  </si>
-  <si>
     <t>HouseShop</t>
   </si>
   <si>
-    <t>Click Inside</t>
-  </si>
-  <si>
     <t>Think Electric</t>
   </si>
   <si>
@@ -385,9 +421,6 @@
     <t>Electro Market</t>
   </si>
   <si>
-    <t>247home</t>
-  </si>
-  <si>
     <t>iFuture</t>
   </si>
   <si>
@@ -409,12 +442,6 @@
     <t>Media Markt</t>
   </si>
   <si>
-    <t>Tzorakis</t>
-  </si>
-  <si>
-    <t>GsTecSystem</t>
-  </si>
-  <si>
     <t>Ledmania</t>
   </si>
   <si>
@@ -445,9 +472,6 @@
     <t>Zmart</t>
   </si>
   <si>
-    <t>Alexopoulos Electronics</t>
-  </si>
-  <si>
     <t>Ηλεκτρολύσεις</t>
   </si>
   <si>
@@ -490,9 +514,6 @@
     <t>Enterspace</t>
   </si>
   <si>
-    <t>E-orfanos</t>
-  </si>
-  <si>
     <t>Pixel</t>
   </si>
   <si>
@@ -562,9 +583,6 @@
     <t>E-vafiadis</t>
   </si>
   <si>
-    <t>Spithas</t>
-  </si>
-  <si>
     <t>Eshophellas</t>
   </si>
   <si>
@@ -607,9 +625,6 @@
     <t>Airclean</t>
   </si>
   <si>
-    <t>Orizonstore</t>
-  </si>
-  <si>
     <t>Start Shop</t>
   </si>
   <si>
@@ -634,9 +649,6 @@
     <t>Chapter 1</t>
   </si>
   <si>
-    <t>AllStock</t>
-  </si>
-  <si>
     <t>Techrider</t>
   </si>
   <si>
@@ -895,9 +907,6 @@
     <t>4home</t>
   </si>
   <si>
-    <t>Proton Power &amp; Light</t>
-  </si>
-  <si>
     <t>NTC Market</t>
   </si>
   <si>
@@ -1429,9 +1438,6 @@
     <t>The Right Price</t>
   </si>
   <si>
-    <t>Homelove</t>
-  </si>
-  <si>
     <t>Mobilehellas</t>
   </si>
   <si>
@@ -2128,78 +2134,120 @@
     <t>TalkToMe</t>
   </si>
   <si>
+    <t>ΚΟΡΩΝΙΟΣ ΓΙΑΝΝΗΣ</t>
+  </si>
+  <si>
+    <t>ΚΥΝΙΑΖΟΠΟΥΛΟΣ ΠΟΛΥΒΙΟΣ ΑΕ    -ΕLΕCΤRΟΝΕΤ-</t>
+  </si>
+  <si>
+    <t>ΑΤΑΜΙΑΝ ΑΤΑΜ ΤΟΥ ΔΑΝΙΕΛ</t>
+  </si>
+  <si>
+    <t>ΑΝΤΩΝΟΠΟΥΛΟΥ Α. ΙΚΕ</t>
+  </si>
+  <si>
     <t>ΣΤΡΑΤΗΓΑΚΗΣ ΕΜΜ.&amp; ΣΙΑ  Ι.Κ.Ε       -ΜΕGΑ</t>
   </si>
   <si>
     <t>ΔΡΟΓΩΣΗΣ ΑΝΤΩΝΙΟΣ Ι Κ Ε</t>
   </si>
   <si>
-    <t>ΚΟΡΩΝΙΟΣ ΓΙΑΝΝΗΣ</t>
+    <t>CELECT AE</t>
+  </si>
+  <si>
+    <t>ORIZON ΕΜΠΟΡΙΚΗ ΙΚΕ</t>
   </si>
   <si>
     <t>ΔΕΒΡΑ ΗΛΙΑΝΑ ΔΗΜΗΤΡΙΟΣ</t>
   </si>
   <si>
+    <t>ΡRΟΤΟΝ ΡΟWΕR LΙGΗΤ ΑΕ</t>
+  </si>
+  <si>
+    <t>ΣΠΙΘΑΣ  ΝΙΚΟΛΑΟΣ ΚΩΝΣΤΑΝΤΙΝΟΣ -ΜΕGΑ ΕURΟΝΙCS</t>
+  </si>
+  <si>
     <t>ΑΤΑΜΙΑΝ ΑΦΟΙ Ο.Ε.</t>
   </si>
   <si>
+    <t>ΣΕΡΑΦΙΓΓΟΣ Α &amp; Η ΟΕ</t>
+  </si>
+  <si>
+    <t>ΚΛΑΠΑΝΑΡΑΣ  ΑΝΑΣΤΑΣΙΟΣ ΤΟΥ ΣΩΤΗΡΙΟΥ</t>
+  </si>
+  <si>
+    <t>ΠΑΥΛΑΚΗΣ ΝΙΚΟΣ</t>
+  </si>
+  <si>
+    <t>ΚΑΤΕΡΕΛΟΣ Β.- ΤΕΡΖΑΚΗΣ Γ.- ΚΑΛΑΝΤΖΑΚΗΣ Μ. ΟΕ</t>
+  </si>
+  <si>
+    <t>ΚΟΣΜΟΝΤΑΤΑ Ε.Π.Ε.</t>
+  </si>
+  <si>
+    <t>ΜΚΖ-ΥΠΗΡΕΣΙΕΣ ΔΙΑΔΙΚΤΥΟΥ ΟΕ</t>
+  </si>
+  <si>
+    <t>ΔΡΟΓΩΣΗΣ ΑΝΤΩΝΙΟΣ ΙΚΕ</t>
+  </si>
+  <si>
+    <t>ΛΙΘΟΞΟΟΥ - ΚΑΙΝΤΑΤΖΗΣ Ο.Ε.  (SΗΟΡ-13)</t>
+  </si>
+  <si>
+    <t>Shop365 GR  AE</t>
+  </si>
+  <si>
+    <t>ΤΖΩΡΑΚΗΣ Α ΚΑΙ ΣΙΑ ΟΕ</t>
+  </si>
+  <si>
+    <t>ΜΟΛΒΑΛΗΣ ΝΙΚ.</t>
+  </si>
+  <si>
+    <t>ΜΟΥΔΑΤΣΑΚΗΣ ΧΑΡΙΔΗΜΟΣ, ΗΡΑΚΛΕΙΟ 2810262042</t>
+  </si>
+  <si>
+    <t>SOMON MON IKE, ΘΕΣΣΑΛΟΝΙΚΗ ΓΡΑΒΙΑΣ 19, 2310252525</t>
+  </si>
+  <si>
+    <t>GUARANTY ΜΟΝΟΠΡΟΣΩΠΗ ΙΚΕ</t>
+  </si>
+  <si>
+    <t>ΣΧΟΙΝΑ Γ.ΥΙΟΙ Ο.Ε.       -ΜΕGΑ</t>
+  </si>
+  <si>
+    <t>ΣΠΑΝΟΣ ΠΑΥΛΟΣ ΓΕΩΡΓΙΟΣ</t>
+  </si>
+  <si>
+    <t>ΥΟU ΟΝLΥ LΙVΕ ΟΝCΕ ΜΙΚΕ</t>
+  </si>
+  <si>
+    <t>ΣΑΒΒΙΔΗΣ ΑΕ</t>
+  </si>
+  <si>
+    <t>ΤΑΤΣΗΣ ΠΑΝΑΓΙΩΤΗΣ ΔΗΜΗΤΡΗΣ</t>
+  </si>
+  <si>
+    <t>ΑΔΑΟΓΛΟΥ</t>
+  </si>
+  <si>
     <t>ΓΡΑΜΜΗ Μ. ΕΠΕ</t>
   </si>
   <si>
-    <t>ΣΕΡΑΦΙΓΓΟΣ Α &amp; Η ΟΕ</t>
-  </si>
-  <si>
-    <t>ΠΑΥΛΑΚΗΣ ΝΙΚΟΣ</t>
-  </si>
-  <si>
-    <t>ΑΤΑΜΙΑΝ ΑΤΑΜ ΤΟΥ ΔΑΝΙΕΛ</t>
-  </si>
-  <si>
-    <t>ΚΑΤΕΡΕΛΟΣ Β.- ΤΕΡΖΑΚΗΣ Γ.- ΚΑΛΑΝΤΖΑΚΗΣ Μ. ΟΕ</t>
-  </si>
-  <si>
-    <t>ΔΡΟΓΩΣΗΣ ΑΝΤΩΝΙΟΣ ΙΚΕ</t>
-  </si>
-  <si>
-    <t>ΛΙΘΟΞΟΟΥ - ΚΑΙΝΤΑΤΖΗΣ Ο.Ε.  (SΗΟΡ-13)</t>
-  </si>
-  <si>
-    <t>Shop365 GR  AE</t>
-  </si>
-  <si>
-    <t>ΜΟΛΒΑΛΗΣ ΝΙΚ.</t>
-  </si>
-  <si>
-    <t>SOMON MON IKE, ΘΕΣΣΑΛΟΝΙΚΗ ΓΡΑΒΙΑΣ 19, 2310252525</t>
+    <t>GUΑRΑΝΤΥ ΜΟΝΟΠΡΟΣΩΠΗ ΙΚΕ</t>
+  </si>
+  <si>
+    <t>ΔΑΛΕΖΙΟΙ ΑΦΟΙ ΑΕΒΕ</t>
+  </si>
+  <si>
+    <t>ΜΑΡΑΓΚΟΣ ΑΝΔΡΕΑΣ &amp; ΣΙΑ Ε.Ε.</t>
+  </si>
+  <si>
+    <t>ΣΚΟΥΛΑΚΗ ΕΙΡΗΝΗ ΚΛΕΟΒΟΥΛΟΣ</t>
   </si>
   <si>
     <t>ΛΕΟΥΣΗΣ &amp; ΕΡΜΑΝ ΟΕ</t>
   </si>
   <si>
-    <t>GUARANTY ΜΟΝΟΠΡΟΣΩΠΗ ΙΚΕ</t>
-  </si>
-  <si>
-    <t>ΣΧΟΙΝΑ Γ.ΥΙΟΙ Ο.Ε.       -ΜΕGΑ</t>
-  </si>
-  <si>
-    <t>ΣΠΑΝΟΣ ΠΑΥΛΟΣ ΓΕΩΡΓΙΟΣ</t>
-  </si>
-  <si>
-    <t>ΣΑΒΒΙΔΗΣ ΑΕ</t>
-  </si>
-  <si>
-    <t>ΤΑΤΣΗΣ ΠΑΝΑΓΙΩΤΗΣ ΔΗΜΗΤΡΗΣ</t>
-  </si>
-  <si>
-    <t>ΔΑΛΕΖΙΟΙ ΑΦΟΙ ΑΕΒΕ</t>
-  </si>
-  <si>
-    <t>ΜΑΡΑΓΚΟΣ ΑΝΔΡΕΑΣ &amp; ΣΙΑ Ε.Ε.</t>
-  </si>
-  <si>
-    <t>ΣΚΟΥΛΑΚΗ ΕΙΡΗΝΗ ΚΛΕΟΒΟΥΛΟΣ</t>
-  </si>
-  <si>
     <t>ΚΟΜΣΟΥΛΑΣ ΑΣΤΕΡΙΟΣ ΙΩΑΝΝΗΣ</t>
   </si>
   <si>
@@ -2212,21 +2260,30 @@
     <t>ΚΡΙΜΑΤΟΓΛΟΥ ΜΗΝΑΣ  Α.Β.Ε.Τ.Ε.    -ΑLΜΑ</t>
   </si>
   <si>
-    <t>ΜΚΖ-ΥΠΗΡΕΣΙΕΣ ΔΙΑΔΙΚΤΥΟΥ ΟΕ</t>
-  </si>
-  <si>
     <t>ΦΕΛΕΚΗΣ ΙΩΑΝΝΗΣ &amp; ΥΙΟΙ ΑΕΒΕ    -WELCOME STORES</t>
   </si>
   <si>
+    <t>ΟΡΦΑΝΟΣ Π. Α.Ε.</t>
+  </si>
+  <si>
+    <t>ΠΙΤΣΟΥΛΑΚΗΣ ΕΜ.- ΡΟΜΠΟΓΙΑΝΝΑΚΗΣ ΝΙΚ ΑΕΒΕ    -ΕLΕCΤRΟΝΕΤ</t>
+  </si>
+  <si>
+    <t>ΓΚΙΟΥΡΙΔΗΣ ΑΘ Ο - ΜΟΥΡΑΤΟΓΛΟΥ Γ Χ Ο Ε</t>
+  </si>
+  <si>
+    <t>ΚΟΥΣΟΥΛΑ Κ. &amp; ΣΙΑ Ο.Ε.                    -ΕLΕCΤRΟΝΕΤ</t>
+  </si>
+  <si>
+    <t>CΟRΑL ΙΝΝΟVΑΤΙΟΝS Α Ε</t>
+  </si>
+  <si>
     <t>ΘΕΟΔΟΥΛΙΔΗΣ Α.Ε.                   ----ΜΕGΑ</t>
   </si>
   <si>
     <t>ACTION TRADING MON IKE, ΑΧΑΡΝΕΣ ΑΤΤΙΚΗ 2102634474</t>
   </si>
   <si>
-    <t>ΑΔΑΟΓΛΟΥ</t>
-  </si>
-  <si>
     <t>ΞΥΔΑΣ ΒΑΣΙΛΕΙΟΣ</t>
   </si>
   <si>
@@ -2248,9 +2305,6 @@
     <t>ΚΟΛΟΜΒΟΥΝΗ ΑΦΟΙ Α.Ε</t>
   </si>
   <si>
-    <t>ΚΛΑΠΑΝΑΡΑΣ  ΑΝΑΣΤΑΣΙΟΣ ΤΟΥ ΣΩΤΗΡΙΟΥ</t>
-  </si>
-  <si>
     <t>ΜΑΟΥ Χ.ΠΑΝΤΕΛΗΣ</t>
   </si>
   <si>
@@ -2260,33 +2314,18 @@
     <t>ΤΖΗΜΑ ΑΝΑΣΤΑΣΙΑ</t>
   </si>
   <si>
-    <t>CΟRΑL ΙΝΝΟVΑΤΙΟΝS Α Ε</t>
-  </si>
-  <si>
     <t>ΠΑΠΑΔΟΠΟΥΛΟΥ  ΑΣΠΑΣΙΑ</t>
   </si>
   <si>
     <t>ΜΠΑΡΜΠΑΣ  ΒΑΣΙΛΕΙΟΣ ΔΗΜΗΤΡΙΟΣ</t>
   </si>
   <si>
-    <t>ΠΙΤΣΟΥΛΑΚΗΣ ΕΜ.- ΡΟΜΠΟΓΙΑΝΝΑΚΗΣ ΝΙΚ ΑΕΒΕ    -ΕLΕCΤRΟΝΕΤ</t>
-  </si>
-  <si>
     <t>ΔΗΛΕΡΗΣ ΔΗΜΗΤΡΙΟΣ   ΙΚΕ   -WΕLCΟΜΕ SΤΟRΕS</t>
   </si>
   <si>
-    <t>ΚΟΣΜΟΝΤΑΤΑ Ε.Π.Ε.</t>
-  </si>
-  <si>
-    <t>ΥΟU ΟΝLΥ LΙVΕ ΟΝCΕ ΜΙΚΕ</t>
-  </si>
-  <si>
     <t>CLUΒ ΗΛΕΚΤΡΟΚΟΣΜΟΣ Α.Ε</t>
   </si>
   <si>
-    <t>GUΑRΑΝΤΥ ΜΟΝΟΠΡΟΣΩΠΗ ΙΚΕ</t>
-  </si>
-  <si>
     <t>ΖΑΓΟΡΙΑΝΟΣ ΚΩΝΣΤΑΝΤΙΝΟΣ    -WΕLCΟΜΕ SΤΟRΕS</t>
   </si>
   <si>
@@ -2332,24 +2371,12 @@
     <t>ΜΟΥΤΑΦΤΣΗΣ ΙΩΑΝΝΗΣ</t>
   </si>
   <si>
-    <t>ΚΟΥΣΟΥΛΑ Κ. &amp; ΣΙΑ Ο.Ε.                    -ΕLΕCΤRΟΝΕΤ</t>
-  </si>
-  <si>
     <t>ΑΙΝΑΛΗΣ ΕΥΑΓΓ.ΔΙΟΓΕΝΗΣ</t>
   </si>
   <si>
-    <t>ΑΝΤΩΝΟΠΟΥΛΟΥ Α. ΙΚΕ</t>
-  </si>
-  <si>
-    <t>CELECT AE</t>
-  </si>
-  <si>
     <t>ΛΥΜΠΕΡΗΣ ΙΩΑΝ. ΑΝΤΩΝΙΟΣ</t>
   </si>
   <si>
-    <t>ΚΥΝΙΑΖΟΠΟΥΛΟΣ ΠΟΛΥΒΙΟΣ ΑΕ    -ΕLΕCΤRΟΝΕΤ-</t>
-  </si>
-  <si>
     <t>ΠΑΠΛΙΑΚΑΣ ΟΔΥΣΣΕΥΣ ΤΟΥ ΝΙΚΟΛΑΟΥ, ΝΙΓΡΙΤΑ ΣΕΡΡΕΣ</t>
   </si>
   <si>
@@ -2386,9 +2413,6 @@
     <t>ΤΑΡΑΡΑΣ Ι. &amp; Δ. Ο.Ε.</t>
   </si>
   <si>
-    <t>ΜΟΥΔΑΤΣΑΚΗΣ ΧΑΡΙΔΗΜΟΣ, ΗΡΑΚΛΕΙΟ 2810262042</t>
-  </si>
-  <si>
     <t>ΜΙΧΑΛΗΣ Γ.ΙΩΑΝΝΗΣ</t>
   </si>
   <si>
@@ -2404,12 +2428,6 @@
     <t>ΜΕDΙΑ SΑΤURΝ  ΕΛΛΑΣ Α.Ε.</t>
   </si>
   <si>
-    <t>ΤΖΩΡΑΚΗΣ Α ΚΑΙ ΣΙΑ ΟΕ</t>
-  </si>
-  <si>
-    <t>ΓΚΙΟΥΡΙΔΗΣ ΑΘ Ο - ΜΟΥΡΑΤΟΓΛΟΥ Γ Χ Ο Ε</t>
-  </si>
-  <si>
     <t>ΚΑΖΑΝΑΣ ΒΑΣΙΛΕΙΟΣ ΑΕΒΕ     -ΕLΕCΤRΟΝΕΤ</t>
   </si>
   <si>
@@ -2458,9 +2476,6 @@
     <t>ΓΡΑΤΣΙΑΣ ΚΩΝΣΤΑΝΤΙΝΟΣ</t>
   </si>
   <si>
-    <t>ΟΡΦΑΝΟΣ Π. Α.Ε.</t>
-  </si>
-  <si>
     <t>ΑΛΕΞΙΑΔΗΣ Κ. Ι.Κ.Ε.  -WΕLCΟΜΕ SΤΟRΕ</t>
   </si>
   <si>
@@ -2512,9 +2527,6 @@
     <t>ΒΑΦΕΙΑΔΗ ΔΗΜ. ΥΙΟΙ Ο.Ε.</t>
   </si>
   <si>
-    <t>ΣΠΙΘΑΣ  ΝΙΚΟΛΑΟΣ ΚΩΝΣΤΑΝΤΙΝΟΣ -ΜΕGΑ ΕURΟΝΙCS</t>
-  </si>
-  <si>
     <t>ΒΟΥΛΓΑΡΑΚΗΣ ΑΝΑΣΤΑΣΙΟΣ ΤΟΥ ΚΥΡΙΑΚΟΥ</t>
   </si>
   <si>
@@ -2542,9 +2554,6 @@
     <t>ΠΛΑΙΣΙΟ CΟΜΡUΤΕRS Α.Ε.Β.Ε.</t>
   </si>
   <si>
-    <t>ORIZON ΕΜΠΟΡΙΚΗ ΙΚΕ</t>
-  </si>
-  <si>
     <t>ΚΑΤΡΑΝΗΣ Ι. ΧΡΗΣΤΟΣ ΜΟΝ/ΠΗ ΙΚΕ - WΕLCΟΜΕ SΤΟRΕS</t>
   </si>
   <si>
@@ -2662,9 +2671,6 @@
     <t>ΟΠΕΡΟΜ ΗΛΕΚΤΡΙΚΟ ΕΜΠΟΡΙΟ ΕΕ</t>
   </si>
   <si>
-    <t>ΡRΟΤΟΝ ΡΟWΕR LΙGΗΤ ΑΕ</t>
-  </si>
-  <si>
     <t>TOP STORE IKE</t>
   </si>
   <si>
@@ -3082,30 +3088,30 @@
     <t>OXI</t>
   </si>
   <si>
+    <t>Χωριανόπουλος</t>
+  </si>
+  <si>
+    <t>Φουτσιτζής</t>
+  </si>
+  <si>
     <t>Χ. Τουλής</t>
   </si>
   <si>
-    <t>Χωριανόπουλος</t>
+    <t>Βασιλειάδης</t>
+  </si>
+  <si>
+    <t>Α. Χατζηκυριακίδης</t>
   </si>
   <si>
     <t>Κολόμβος</t>
   </si>
   <si>
-    <t>Φουτσιτζής</t>
-  </si>
-  <si>
-    <t>Βασιλειάδης</t>
+    <t>Ράπτης</t>
   </si>
   <si>
     <t>Δεν είναι πελάτης μας</t>
   </si>
   <si>
-    <t>Ράπτης</t>
-  </si>
-  <si>
-    <t>Α. Χατζηκυριακίδης</t>
-  </si>
-  <si>
     <t>Χατζηκυριακίδης</t>
   </si>
   <si>
@@ -3118,6 +3124,9 @@
     <t>Πελάτης Κεντρικού</t>
   </si>
   <si>
+    <t>Χρηστίδης Χρήστος</t>
+  </si>
+  <si>
     <t>Ελίνα, Λευτέρης</t>
   </si>
   <si>
@@ -3125,9 +3134,6 @@
   </si>
   <si>
     <t>Αϊναλής Ευάγγελος</t>
-  </si>
-  <si>
-    <t>Χρηστίδης Χρήστος</t>
   </si>
   <si>
     <t>Βορεόπουλος Πάρης</t>
@@ -3500,7 +3506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E701"/>
+  <dimension ref="A1:E703"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3534,16 +3540,25 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="D3" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3551,35 +3566,26 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="D4" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>706</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1023</v>
-      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="D6" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3587,10 +3593,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D7" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3598,35 +3604,29 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="D8" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>710</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1023</v>
-      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D10" t="s">
-        <v>1022</v>
+        <v>1028</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3634,10 +3634,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D11" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3645,10 +3645,10 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D12" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3656,10 +3656,10 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D13" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3667,10 +3667,10 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D14" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3678,37 +3678,46 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>716</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1018</v>
+        <v>717</v>
       </c>
       <c r="D15" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>19</v>
       </c>
+      <c r="B16" t="s">
+        <v>718</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>20</v>
       </c>
+      <c r="B17" t="s">
+        <v>719</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1027</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>717</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1017</v>
+        <v>720</v>
       </c>
       <c r="D18" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3716,10 +3725,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="D19" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3727,13 +3736,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C20" t="s">
         <v>1019</v>
       </c>
       <c r="D20" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3741,7 +3750,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="D21" t="s">
         <v>1026</v>
@@ -3752,7 +3761,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="D22" t="s">
         <v>1024</v>
@@ -3763,10 +3772,10 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="D23" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3778,28 +3787,25 @@
       <c r="A25" t="s">
         <v>28</v>
       </c>
+      <c r="B25" t="s">
+        <v>726</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" t="s">
-        <v>723</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1024</v>
-      </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" t="s">
-        <v>724</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1024</v>
-      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
@@ -3810,6 +3816,12 @@
       <c r="A29" t="s">
         <v>32</v>
       </c>
+      <c r="B29" t="s">
+        <v>727</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1025</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
@@ -3820,26 +3832,47 @@
       <c r="A31" t="s">
         <v>34</v>
       </c>
+      <c r="B31" t="s">
+        <v>728</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>35</v>
       </c>
+      <c r="B32" t="s">
+        <v>729</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>36</v>
       </c>
+      <c r="B33" t="s">
+        <v>730</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="D34" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3847,10 +3880,10 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="D35" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3858,22 +3891,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="D36" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>40</v>
       </c>
-      <c r="B37" t="s">
-        <v>728</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1029</v>
-      </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
@@ -3890,26 +3917,32 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="D40" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>44</v>
       </c>
+      <c r="B41" t="s">
+        <v>735</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1029</v>
+      </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="D42" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3926,17 +3959,14 @@
       <c r="A45" t="s">
         <v>48</v>
       </c>
-      <c r="B45" t="s">
-        <v>731</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1026</v>
-      </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>49</v>
       </c>
+      <c r="B46" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
@@ -3947,379 +3977,340 @@
       <c r="A48" t="s">
         <v>51</v>
       </c>
-      <c r="B48" t="s">
-        <v>732</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>52</v>
       </c>
-      <c r="B49" t="s">
-        <v>733</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E49" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="D50" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="D51" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="B52" t="s">
+        <v>740</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>741</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="D54" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>738</v>
+        <v>743</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1021</v>
       </c>
       <c r="D55" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="B56" t="s">
+        <v>744</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>60</v>
       </c>
-      <c r="B57" t="s">
-        <v>739</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="D59" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>741</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1020</v>
+        <v>746</v>
       </c>
       <c r="D61" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>65</v>
       </c>
-      <c r="B62" t="s">
-        <v>742</v>
-      </c>
-      <c r="D62" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>66</v>
       </c>
-      <c r="B63" t="s">
-        <v>743</v>
-      </c>
-      <c r="D63" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="B64" t="s">
+        <v>747</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="B65" t="s">
+        <v>748</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="D66" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>70</v>
       </c>
-      <c r="B67" t="s">
-        <v>745</v>
-      </c>
-      <c r="D67" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="D68" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>747</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1017</v>
+        <v>751</v>
       </c>
       <c r="D69" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="D70" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="D71" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>75</v>
       </c>
-      <c r="B72" t="s">
-        <v>750</v>
-      </c>
-      <c r="D72" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>76</v>
       </c>
-      <c r="B73" t="s">
-        <v>751</v>
-      </c>
-      <c r="D73" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>77</v>
       </c>
-      <c r="B74" t="s">
-        <v>752</v>
-      </c>
-      <c r="D74" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="B75" t="s">
+        <v>754</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>753</v>
-      </c>
-      <c r="C76" t="s">
-        <v>1017</v>
+        <v>755</v>
       </c>
       <c r="D76" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="D78" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D79" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="D81" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>85</v>
       </c>
-      <c r="B82" t="s">
-        <v>757</v>
-      </c>
-      <c r="D82" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E82" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D83" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>87</v>
       </c>
-      <c r="B84" t="s">
-        <v>759</v>
-      </c>
-      <c r="D84" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>88</v>
       </c>
       <c r="B85" t="s">
         <v>760</v>
       </c>
+      <c r="C85" t="s">
+        <v>1022</v>
+      </c>
       <c r="D85" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>89</v>
       </c>
@@ -4327,10 +4318,10 @@
         <v>761</v>
       </c>
       <c r="D86" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -4341,95 +4332,86 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>91</v>
       </c>
-      <c r="B88" t="s">
-        <v>763</v>
-      </c>
-      <c r="D88" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>92</v>
       </c>
-      <c r="B89" t="s">
-        <v>764</v>
-      </c>
-      <c r="D89" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D90" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D91" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>767</v>
+        <v>765</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1019</v>
       </c>
       <c r="D92" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D93" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D94" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D95" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>99</v>
       </c>
@@ -4438,29 +4420,41 @@
       <c r="A97" t="s">
         <v>100</v>
       </c>
+      <c r="B97" t="s">
+        <v>769</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1029</v>
+      </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>101</v>
       </c>
-      <c r="B98" t="s">
-        <v>771</v>
-      </c>
-      <c r="D98" t="s">
-        <v>1025</v>
-      </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>102</v>
       </c>
+      <c r="B99" t="s">
+        <v>770</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1038</v>
+      </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>103</v>
       </c>
+      <c r="B100" t="s">
+        <v>771</v>
+      </c>
       <c r="D100" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4471,7 +4465,7 @@
         <v>772</v>
       </c>
       <c r="D101" t="s">
-        <v>1024</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4482,26 +4476,29 @@
         <v>773</v>
       </c>
       <c r="D102" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E102" t="s">
-        <v>1036</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>106</v>
       </c>
+      <c r="B103" t="s">
+        <v>774</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D104" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4509,13 +4506,10 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D105" t="s">
         <v>1029</v>
-      </c>
-      <c r="E105" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4523,10 +4517,10 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D106" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4534,7 +4528,7 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D107" t="s">
         <v>1025</v>
@@ -4545,10 +4539,10 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D108" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4556,10 +4550,10 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D109" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4567,7 +4561,7 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D110" t="s">
         <v>1025</v>
@@ -4578,13 +4572,10 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D111" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E111" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4592,24 +4583,18 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D112" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>116</v>
       </c>
-      <c r="B113" t="s">
-        <v>783</v>
-      </c>
-      <c r="D113" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>117</v>
       </c>
@@ -4620,184 +4605,190 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>118</v>
       </c>
-      <c r="B115" t="s">
-        <v>785</v>
-      </c>
-      <c r="D115" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>119</v>
       </c>
-      <c r="B116" t="s">
-        <v>786</v>
-      </c>
       <c r="D116" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D117" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>1028</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>121</v>
       </c>
-      <c r="B118" t="s">
-        <v>788</v>
-      </c>
-      <c r="D118" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D119" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D120" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="B121" t="s">
+        <v>788</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D122" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D123" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>1028</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D124" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="B125" t="s">
+        <v>792</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D126" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>795</v>
-      </c>
-      <c r="C127" t="s">
-        <v>1016</v>
+        <v>794</v>
       </c>
       <c r="D127" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D128" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D129" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="B130" t="s">
+        <v>797</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="B131" t="s">
+        <v>798</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>135</v>
       </c>
-      <c r="B132" t="s">
-        <v>798</v>
-      </c>
-      <c r="D132" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>136</v>
       </c>
@@ -4808,7 +4799,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>137</v>
       </c>
@@ -4816,144 +4807,150 @@
         <v>800</v>
       </c>
       <c r="D134" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="B135" t="s">
+        <v>801</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>139</v>
       </c>
-      <c r="B136" t="s">
-        <v>801</v>
-      </c>
-      <c r="D136" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E136" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="B137" t="s">
+        <v>802</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>802</v>
+        <v>803</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1018</v>
       </c>
       <c r="D138" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="B141" t="s">
+        <v>804</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="D142" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="D143" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="D145" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="E145" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
         <v>149</v>
       </c>
-      <c r="B146" t="s">
-        <v>806</v>
-      </c>
-      <c r="D146" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D147" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
         <v>151</v>
       </c>
-      <c r="B148" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>152</v>
       </c>
-      <c r="B149" t="s">
-        <v>809</v>
-      </c>
-      <c r="D149" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="151" spans="1:4">
+      <c r="B150" t="s">
+        <v>809</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
         <v>154</v>
       </c>
@@ -4961,65 +4958,56 @@
         <v>810</v>
       </c>
       <c r="D151" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152" t="s">
         <v>155</v>
       </c>
-      <c r="B152" t="s">
-        <v>811</v>
-      </c>
-      <c r="D152" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153" t="s">
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D153" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D154" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D155" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156" t="s">
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>810</v>
-      </c>
-      <c r="D156" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" t="s">
         <v>160</v>
       </c>
@@ -5027,37 +5015,37 @@
         <v>815</v>
       </c>
       <c r="D157" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" t="s">
         <v>161</v>
       </c>
-      <c r="B158" t="s">
-        <v>816</v>
-      </c>
-      <c r="D158" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" t="s">
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D159" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="B160" t="s">
+        <v>817</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>164</v>
       </c>
@@ -5065,10 +5053,10 @@
         <v>818</v>
       </c>
       <c r="D161" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>165</v>
       </c>
@@ -5076,140 +5064,134 @@
         <v>819</v>
       </c>
       <c r="D162" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="D163" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D164" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <v>821</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D166" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="169" spans="1:5">
+      <c r="B168" t="s">
+        <v>823</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="B169" t="s">
+        <v>824</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D170" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D171" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E171" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>826</v>
-      </c>
-      <c r="D172" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D173" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E173" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>177</v>
       </c>
-      <c r="B174" t="s">
-        <v>828</v>
-      </c>
-      <c r="D174" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>179</v>
-      </c>
-      <c r="B176" t="s">
-        <v>829</v>
-      </c>
-      <c r="D176" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5217,10 +5199,10 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D177" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5228,10 +5210,13 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D178" t="s">
         <v>1028</v>
+      </c>
+      <c r="E178" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5239,16 +5224,25 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D179" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
         <v>183</v>
       </c>
+      <c r="B180" t="s">
+        <v>832</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E180" t="s">
+        <v>1043</v>
+      </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
@@ -5258,24 +5252,24 @@
         <v>833</v>
       </c>
       <c r="D181" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
         <v>185</v>
       </c>
-      <c r="B182" t="s">
-        <v>834</v>
-      </c>
-      <c r="D182" t="s">
-        <v>1025</v>
-      </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
         <v>186</v>
       </c>
+      <c r="B183" t="s">
+        <v>834</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1028</v>
+      </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
@@ -5285,24 +5279,24 @@
         <v>835</v>
       </c>
       <c r="D184" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
         <v>188</v>
       </c>
+      <c r="B185" t="s">
+        <v>836</v>
+      </c>
+      <c r="D185" t="s">
+        <v>1030</v>
+      </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
         <v>189</v>
       </c>
-      <c r="B186" t="s">
-        <v>836</v>
-      </c>
-      <c r="D186" t="s">
-        <v>1025</v>
-      </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
@@ -5312,7 +5306,7 @@
         <v>837</v>
       </c>
       <c r="D187" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5325,54 +5319,51 @@
       <c r="D188" t="s">
         <v>1025</v>
       </c>
-      <c r="E188" t="s">
-        <v>1042</v>
-      </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
         <v>192</v>
       </c>
-      <c r="B189" t="s">
-        <v>839</v>
-      </c>
-      <c r="D189" t="s">
-        <v>1029</v>
-      </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
         <v>193</v>
       </c>
+      <c r="B190" t="s">
+        <v>839</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1025</v>
+      </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
         <v>194</v>
       </c>
-      <c r="B191" t="s">
-        <v>840</v>
-      </c>
-      <c r="D191" t="s">
-        <v>1025</v>
-      </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D192" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
       <c r="A193" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="194" spans="1:4">
+      <c r="B193" t="s">
+        <v>841</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194" t="s">
         <v>197</v>
       </c>
@@ -5380,131 +5371,140 @@
         <v>842</v>
       </c>
       <c r="D194" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
+        <v>1025</v>
+      </c>
+      <c r="E194" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="196" spans="1:4">
+      <c r="B195" t="s">
+        <v>843</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
       <c r="A196" t="s">
         <v>199</v>
       </c>
-      <c r="B196" t="s">
-        <v>843</v>
-      </c>
-      <c r="D196" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="198" spans="1:4">
+      <c r="B197" t="s">
+        <v>844</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198" t="s">
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D198" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
       <c r="A199" t="s">
         <v>202</v>
       </c>
-      <c r="B199" t="s">
-        <v>845</v>
-      </c>
-      <c r="D199" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
+    </row>
+    <row r="200" spans="1:5">
       <c r="A200" t="s">
         <v>203</v>
       </c>
-      <c r="B200" t="s">
-        <v>846</v>
-      </c>
-      <c r="D200" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
+    </row>
+    <row r="201" spans="1:5">
       <c r="A201" t="s">
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D201" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
       <c r="A202" t="s">
         <v>205</v>
       </c>
-      <c r="B202" t="s">
-        <v>848</v>
-      </c>
-      <c r="D202" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
+    </row>
+    <row r="203" spans="1:5">
       <c r="A203" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="204" spans="1:4">
+      <c r="B203" t="s">
+        <v>847</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
       <c r="A204" t="s">
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D204" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
       <c r="A205" t="s">
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D205" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
       <c r="A206" t="s">
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D206" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
       <c r="A207" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="208" spans="1:4">
+      <c r="B207" t="s">
+        <v>851</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
       <c r="A208" t="s">
         <v>211</v>
+      </c>
+      <c r="B208" t="s">
+        <v>852</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -5512,16 +5512,22 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D209" t="s">
-        <v>1027</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
         <v>213</v>
       </c>
+      <c r="B210" t="s">
+        <v>854</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1028</v>
+      </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
@@ -5538,10 +5544,10 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D213" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -5553,12 +5559,6 @@
       <c r="A215" t="s">
         <v>218</v>
       </c>
-      <c r="B215" t="s">
-        <v>854</v>
-      </c>
-      <c r="D215" t="s">
-        <v>1026</v>
-      </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
@@ -5570,10 +5570,10 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D217" t="s">
-        <v>1027</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5585,6 +5585,12 @@
       <c r="A219" t="s">
         <v>222</v>
       </c>
+      <c r="B219" t="s">
+        <v>857</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1027</v>
+      </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
@@ -5595,6 +5601,12 @@
       <c r="A221" t="s">
         <v>224</v>
       </c>
+      <c r="B221" t="s">
+        <v>858</v>
+      </c>
+      <c r="D221" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
@@ -5605,31 +5617,16 @@
       <c r="A223" t="s">
         <v>226</v>
       </c>
-      <c r="B223" t="s">
-        <v>856</v>
-      </c>
-      <c r="D223" t="s">
-        <v>1026</v>
-      </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
         <v>227</v>
       </c>
-      <c r="B224" t="s">
-        <v>857</v>
-      </c>
-      <c r="D224" t="s">
-        <v>1029</v>
-      </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
         <v>228</v>
       </c>
-      <c r="B225" t="s">
-        <v>858</v>
-      </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
@@ -5640,16 +5637,31 @@
       <c r="A227" t="s">
         <v>230</v>
       </c>
+      <c r="B227" t="s">
+        <v>859</v>
+      </c>
+      <c r="D227" t="s">
+        <v>1027</v>
+      </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
         <v>231</v>
       </c>
+      <c r="B228" t="s">
+        <v>860</v>
+      </c>
+      <c r="D228" t="s">
+        <v>1028</v>
+      </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
         <v>232</v>
       </c>
+      <c r="B229" t="s">
+        <v>861</v>
+      </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
@@ -5660,50 +5672,32 @@
       <c r="A231" t="s">
         <v>234</v>
       </c>
-      <c r="B231" t="s">
-        <v>859</v>
-      </c>
-      <c r="D231" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
         <v>235</v>
       </c>
-      <c r="B232" t="s">
-        <v>860</v>
-      </c>
-      <c r="D232" t="s">
-        <v>1029</v>
-      </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
         <v>236</v>
       </c>
-      <c r="B233" t="s">
-        <v>861</v>
-      </c>
-      <c r="D233" t="s">
-        <v>1029</v>
-      </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
         <v>237</v>
       </c>
-      <c r="B234" t="s">
-        <v>862</v>
-      </c>
-      <c r="D234" t="s">
-        <v>1023</v>
-      </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
         <v>238</v>
       </c>
+      <c r="B235" t="s">
+        <v>862</v>
+      </c>
+      <c r="D235" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
@@ -5713,34 +5707,46 @@
         <v>863</v>
       </c>
       <c r="D236" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
         <v>240</v>
       </c>
+      <c r="B237" t="s">
+        <v>864</v>
+      </c>
+      <c r="D237" t="s">
+        <v>1028</v>
+      </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
         <v>241</v>
       </c>
+      <c r="B238" t="s">
+        <v>865</v>
+      </c>
+      <c r="D238" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
         <v>242</v>
       </c>
-      <c r="B239" t="s">
-        <v>864</v>
-      </c>
-      <c r="D239" t="s">
-        <v>1025</v>
-      </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
         <v>243</v>
       </c>
+      <c r="B240" t="s">
+        <v>866</v>
+      </c>
+      <c r="D240" t="s">
+        <v>1028</v>
+      </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
@@ -5756,28 +5762,22 @@
       <c r="A243" t="s">
         <v>246</v>
       </c>
+      <c r="B243" t="s">
+        <v>867</v>
+      </c>
+      <c r="D243" t="s">
+        <v>1025</v>
+      </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
         <v>247</v>
       </c>
-      <c r="B244" t="s">
-        <v>865</v>
-      </c>
-      <c r="D244" t="s">
-        <v>1023</v>
-      </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
         <v>248</v>
       </c>
-      <c r="B245" t="s">
-        <v>865</v>
-      </c>
-      <c r="D245" t="s">
-        <v>1023</v>
-      </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
@@ -5793,39 +5793,33 @@
       <c r="A248" t="s">
         <v>251</v>
       </c>
+      <c r="B248" t="s">
+        <v>868</v>
+      </c>
+      <c r="D248" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="D249" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
         <v>253</v>
       </c>
-      <c r="B250" t="s">
-        <v>867</v>
-      </c>
-      <c r="D250" t="s">
-        <v>1024</v>
-      </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
         <v>254</v>
       </c>
-      <c r="B251" t="s">
-        <v>868</v>
-      </c>
-      <c r="D251" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
@@ -5839,33 +5833,36 @@
       <c r="B253" t="s">
         <v>869</v>
       </c>
+      <c r="D253" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
         <v>257</v>
       </c>
+      <c r="B254" t="s">
+        <v>870</v>
+      </c>
+      <c r="D254" t="s">
+        <v>1029</v>
+      </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D255" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
         <v>259</v>
       </c>
-      <c r="B256" t="s">
-        <v>871</v>
-      </c>
-      <c r="D256" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
@@ -5874,40 +5871,55 @@
       <c r="B257" t="s">
         <v>872</v>
       </c>
-      <c r="D257" t="s">
-        <v>1025</v>
-      </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
         <v>261</v>
       </c>
-      <c r="B258" t="s">
-        <v>873</v>
-      </c>
-      <c r="D258" t="s">
-        <v>1032</v>
-      </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
         <v>262</v>
       </c>
+      <c r="B259" t="s">
+        <v>873</v>
+      </c>
+      <c r="D259" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
         <v>263</v>
       </c>
+      <c r="B260" t="s">
+        <v>874</v>
+      </c>
+      <c r="D260" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
         <v>264</v>
       </c>
+      <c r="B261" t="s">
+        <v>875</v>
+      </c>
+      <c r="D261" t="s">
+        <v>1025</v>
+      </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
         <v>265</v>
       </c>
+      <c r="B262" t="s">
+        <v>876</v>
+      </c>
+      <c r="D262" t="s">
+        <v>1034</v>
+      </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
@@ -5923,23 +5935,11 @@
       <c r="A265" t="s">
         <v>268</v>
       </c>
-      <c r="B265" t="s">
-        <v>874</v>
-      </c>
-      <c r="D265" t="s">
-        <v>1024</v>
-      </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="s">
         <v>269</v>
       </c>
-      <c r="B266" t="s">
-        <v>875</v>
-      </c>
-      <c r="D266" t="s">
-        <v>1029</v>
-      </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="s">
@@ -5955,24 +5955,36 @@
       <c r="A269" t="s">
         <v>272</v>
       </c>
+      <c r="B269" t="s">
+        <v>877</v>
+      </c>
+      <c r="D269" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" t="s">
+        <v>273</v>
+      </c>
+      <c r="B270" t="s">
+        <v>878</v>
+      </c>
+      <c r="D270" t="s">
+        <v>1028</v>
+      </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4">
-      <c r="A274" t="s">
         <v>276</v>
       </c>
     </row>
@@ -5980,12 +5992,6 @@
       <c r="A275" t="s">
         <v>277</v>
       </c>
-      <c r="B275" t="s">
-        <v>876</v>
-      </c>
-      <c r="D275" t="s">
-        <v>1024</v>
-      </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" t="s">
@@ -5996,12 +6002,6 @@
       <c r="A277" t="s">
         <v>279</v>
       </c>
-      <c r="B277" t="s">
-        <v>877</v>
-      </c>
-      <c r="D277" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="s">
@@ -6013,7 +6013,10 @@
         <v>281</v>
       </c>
       <c r="B279" t="s">
-        <v>878</v>
+        <v>879</v>
+      </c>
+      <c r="D279" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -6026,10 +6029,10 @@
         <v>283</v>
       </c>
       <c r="B281" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D281" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -6041,33 +6044,30 @@
       <c r="A283" t="s">
         <v>285</v>
       </c>
+      <c r="B283" t="s">
+        <v>881</v>
+      </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" t="s">
         <v>286</v>
       </c>
-      <c r="B284" t="s">
-        <v>880</v>
-      </c>
-      <c r="D284" t="s">
-        <v>1024</v>
-      </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" t="s">
         <v>287</v>
       </c>
+      <c r="B285" t="s">
+        <v>882</v>
+      </c>
+      <c r="D285" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" t="s">
         <v>288</v>
       </c>
-      <c r="B286" t="s">
-        <v>881</v>
-      </c>
-      <c r="D286" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" t="s">
@@ -6078,6 +6078,12 @@
       <c r="A288" t="s">
         <v>290</v>
       </c>
+      <c r="B288" t="s">
+        <v>883</v>
+      </c>
+      <c r="D288" t="s">
+        <v>1029</v>
+      </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="s">
@@ -6088,28 +6094,22 @@
       <c r="A290" t="s">
         <v>292</v>
       </c>
+      <c r="B290" t="s">
+        <v>884</v>
+      </c>
+      <c r="D290" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" t="s">
         <v>293</v>
       </c>
-      <c r="B291" t="s">
-        <v>882</v>
-      </c>
-      <c r="D291" t="s">
-        <v>1024</v>
-      </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" t="s">
         <v>294</v>
       </c>
-      <c r="B292" t="s">
-        <v>883</v>
-      </c>
-      <c r="D292" t="s">
-        <v>1026</v>
-      </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" t="s">
@@ -6125,17 +6125,17 @@
       <c r="A295" t="s">
         <v>297</v>
       </c>
+      <c r="B295" t="s">
+        <v>885</v>
+      </c>
+      <c r="D295" t="s">
+        <v>1027</v>
+      </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" t="s">
         <v>298</v>
       </c>
-      <c r="B296" t="s">
-        <v>884</v>
-      </c>
-      <c r="D296" t="s">
-        <v>1024</v>
-      </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" t="s">
@@ -6152,10 +6152,10 @@
         <v>301</v>
       </c>
       <c r="B299" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D299" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6172,6 +6172,12 @@
       <c r="A302" t="s">
         <v>304</v>
       </c>
+      <c r="B302" t="s">
+        <v>887</v>
+      </c>
+      <c r="D302" t="s">
+        <v>1025</v>
+      </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" t="s">
@@ -6182,12 +6188,6 @@
       <c r="A304" t="s">
         <v>306</v>
       </c>
-      <c r="B304" t="s">
-        <v>886</v>
-      </c>
-      <c r="D304" t="s">
-        <v>1024</v>
-      </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" t="s">
@@ -6203,6 +6203,12 @@
       <c r="A307" t="s">
         <v>309</v>
       </c>
+      <c r="B307" t="s">
+        <v>888</v>
+      </c>
+      <c r="D307" t="s">
+        <v>1029</v>
+      </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" t="s">
@@ -6218,12 +6224,6 @@
       <c r="A310" t="s">
         <v>312</v>
       </c>
-      <c r="B310" t="s">
-        <v>887</v>
-      </c>
-      <c r="D310" t="s">
-        <v>1024</v>
-      </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" t="s">
@@ -6239,6 +6239,12 @@
       <c r="A313" t="s">
         <v>315</v>
       </c>
+      <c r="B313" t="s">
+        <v>889</v>
+      </c>
+      <c r="D313" t="s">
+        <v>1029</v>
+      </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" t="s">
@@ -6259,49 +6265,49 @@
       <c r="A317" t="s">
         <v>319</v>
       </c>
-      <c r="B317" t="s">
-        <v>888</v>
-      </c>
-      <c r="D317" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" t="s">
         <v>320</v>
       </c>
-      <c r="B318" t="s">
-        <v>889</v>
-      </c>
-      <c r="D318" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" t="s">
         <v>321</v>
       </c>
-      <c r="B319" t="s">
-        <v>889</v>
-      </c>
-      <c r="D319" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" t="s">
         <v>322</v>
       </c>
+      <c r="B320" t="s">
+        <v>890</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" t="s">
         <v>323</v>
       </c>
+      <c r="B321" t="s">
+        <v>891</v>
+      </c>
+      <c r="D321" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" t="s">
         <v>324</v>
       </c>
+      <c r="B322" t="s">
+        <v>891</v>
+      </c>
+      <c r="D322" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" t="s">
@@ -6317,12 +6323,6 @@
       <c r="A325" t="s">
         <v>327</v>
       </c>
-      <c r="B325" t="s">
-        <v>890</v>
-      </c>
-      <c r="D325" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" t="s">
@@ -6338,6 +6338,12 @@
       <c r="A328" t="s">
         <v>330</v>
       </c>
+      <c r="B328" t="s">
+        <v>892</v>
+      </c>
+      <c r="D328" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" t="s">
@@ -6353,20 +6359,11 @@
       <c r="A331" t="s">
         <v>333</v>
       </c>
-      <c r="B331" t="s">
-        <v>891</v>
-      </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" t="s">
         <v>334</v>
       </c>
-      <c r="B332" t="s">
-        <v>892</v>
-      </c>
-      <c r="D332" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" t="s">
@@ -6377,22 +6374,25 @@
       <c r="A334" t="s">
         <v>336</v>
       </c>
+      <c r="B334" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" t="s">
         <v>337</v>
       </c>
+      <c r="B335" t="s">
+        <v>894</v>
+      </c>
+      <c r="D335" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" t="s">
         <v>338</v>
       </c>
-      <c r="B336" t="s">
-        <v>893</v>
-      </c>
-      <c r="D336" t="s">
-        <v>1026</v>
-      </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" t="s">
@@ -6408,6 +6408,12 @@
       <c r="A339" t="s">
         <v>341</v>
       </c>
+      <c r="B339" t="s">
+        <v>895</v>
+      </c>
+      <c r="D339" t="s">
+        <v>1027</v>
+      </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" t="s">
@@ -6428,12 +6434,6 @@
       <c r="A343" t="s">
         <v>345</v>
       </c>
-      <c r="B343" t="s">
-        <v>894</v>
-      </c>
-      <c r="D343" t="s">
-        <v>1025</v>
-      </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" t="s">
@@ -6449,17 +6449,17 @@
       <c r="A346" t="s">
         <v>348</v>
       </c>
+      <c r="B346" t="s">
+        <v>896</v>
+      </c>
+      <c r="D346" t="s">
+        <v>1025</v>
+      </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" t="s">
         <v>349</v>
       </c>
-      <c r="B347" t="s">
-        <v>895</v>
-      </c>
-      <c r="D347" t="s">
-        <v>1030</v>
-      </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" t="s">
@@ -6475,6 +6475,12 @@
       <c r="A350" t="s">
         <v>352</v>
       </c>
+      <c r="B350" t="s">
+        <v>897</v>
+      </c>
+      <c r="D350" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" t="s">
@@ -6590,23 +6596,11 @@
       <c r="A373" t="s">
         <v>375</v>
       </c>
-      <c r="B373" t="s">
-        <v>896</v>
-      </c>
-      <c r="D373" t="s">
-        <v>1033</v>
-      </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" t="s">
         <v>376</v>
       </c>
-      <c r="B374" t="s">
-        <v>897</v>
-      </c>
-      <c r="D374" t="s">
-        <v>1033</v>
-      </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" t="s">
@@ -6617,11 +6611,23 @@
       <c r="A376" t="s">
         <v>378</v>
       </c>
+      <c r="B376" t="s">
+        <v>898</v>
+      </c>
+      <c r="D376" t="s">
+        <v>1035</v>
+      </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" t="s">
         <v>379</v>
       </c>
+      <c r="B377" t="s">
+        <v>899</v>
+      </c>
+      <c r="D377" t="s">
+        <v>1035</v>
+      </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" t="s">
@@ -6662,12 +6668,6 @@
       <c r="A385" t="s">
         <v>387</v>
       </c>
-      <c r="B385" t="s">
-        <v>898</v>
-      </c>
-      <c r="D385" t="s">
-        <v>1026</v>
-      </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" t="s">
@@ -6683,6 +6683,12 @@
       <c r="A388" t="s">
         <v>390</v>
       </c>
+      <c r="B388" t="s">
+        <v>900</v>
+      </c>
+      <c r="D388" t="s">
+        <v>1027</v>
+      </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" t="s">
@@ -6713,12 +6719,6 @@
       <c r="A394" t="s">
         <v>396</v>
       </c>
-      <c r="B394" t="s">
-        <v>899</v>
-      </c>
-      <c r="D394" t="s">
-        <v>1026</v>
-      </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" t="s">
@@ -6734,6 +6734,12 @@
       <c r="A397" t="s">
         <v>399</v>
       </c>
+      <c r="B397" t="s">
+        <v>901</v>
+      </c>
+      <c r="D397" t="s">
+        <v>1027</v>
+      </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" t="s">
@@ -6744,12 +6750,6 @@
       <c r="A399" t="s">
         <v>401</v>
       </c>
-      <c r="B399" t="s">
-        <v>900</v>
-      </c>
-      <c r="D399" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" t="s">
@@ -6765,6 +6765,12 @@
       <c r="A402" t="s">
         <v>404</v>
       </c>
+      <c r="B402" t="s">
+        <v>902</v>
+      </c>
+      <c r="D402" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" t="s">
@@ -6775,12 +6781,6 @@
       <c r="A404" t="s">
         <v>406</v>
       </c>
-      <c r="B404" t="s">
-        <v>901</v>
-      </c>
-      <c r="D404" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" t="s">
@@ -6791,17 +6791,17 @@
       <c r="A406" t="s">
         <v>408</v>
       </c>
-      <c r="B406" t="s">
-        <v>902</v>
-      </c>
-      <c r="D406" t="s">
-        <v>1025</v>
-      </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" t="s">
         <v>409</v>
       </c>
+      <c r="B407" t="s">
+        <v>903</v>
+      </c>
+      <c r="D407" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" t="s">
@@ -6813,10 +6813,10 @@
         <v>411</v>
       </c>
       <c r="B409" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D409" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -6833,28 +6833,22 @@
       <c r="A412" t="s">
         <v>414</v>
       </c>
+      <c r="B412" t="s">
+        <v>905</v>
+      </c>
+      <c r="D412" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" t="s">
         <v>415</v>
       </c>
-      <c r="B413" t="s">
-        <v>904</v>
-      </c>
-      <c r="D413" t="s">
-        <v>1026</v>
-      </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" t="s">
         <v>416</v>
       </c>
-      <c r="B414" t="s">
-        <v>905</v>
-      </c>
-      <c r="D414" t="s">
-        <v>1028</v>
-      </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" t="s">
@@ -6865,55 +6859,55 @@
       <c r="A416" t="s">
         <v>418</v>
       </c>
+      <c r="B416" t="s">
+        <v>906</v>
+      </c>
+      <c r="D416" t="s">
+        <v>1027</v>
+      </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" t="s">
         <v>419</v>
       </c>
       <c r="B417" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D417" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" t="s">
         <v>420</v>
       </c>
-      <c r="B418" t="s">
-        <v>907</v>
-      </c>
-      <c r="D418" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" t="s">
         <v>421</v>
       </c>
-      <c r="B419" t="s">
-        <v>908</v>
-      </c>
-      <c r="D419" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" t="s">
         <v>422</v>
       </c>
       <c r="B420" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D420" t="s">
-        <v>1024</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" t="s">
         <v>423</v>
       </c>
+      <c r="B421" t="s">
+        <v>909</v>
+      </c>
+      <c r="D421" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" t="s">
@@ -6923,13 +6917,19 @@
         <v>910</v>
       </c>
       <c r="D422" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" t="s">
         <v>425</v>
       </c>
+      <c r="B423" t="s">
+        <v>911</v>
+      </c>
+      <c r="D423" t="s">
+        <v>1029</v>
+      </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" t="s">
@@ -6940,17 +6940,17 @@
       <c r="A425" t="s">
         <v>427</v>
       </c>
+      <c r="B425" t="s">
+        <v>912</v>
+      </c>
+      <c r="D425" t="s">
+        <v>1025</v>
+      </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" t="s">
         <v>428</v>
       </c>
-      <c r="B426" t="s">
-        <v>911</v>
-      </c>
-      <c r="D426" t="s">
-        <v>1030</v>
-      </c>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" t="s">
@@ -6966,46 +6966,34 @@
       <c r="A429" t="s">
         <v>431</v>
       </c>
+      <c r="B429" t="s">
+        <v>913</v>
+      </c>
+      <c r="D429" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" t="s">
         <v>432</v>
       </c>
-      <c r="B430" t="s">
-        <v>912</v>
-      </c>
-      <c r="D430" t="s">
-        <v>1026</v>
-      </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" t="s">
         <v>433</v>
       </c>
-      <c r="B431" t="s">
-        <v>913</v>
-      </c>
-      <c r="D431" t="s">
-        <v>1025</v>
-      </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" t="s">
         <v>434</v>
       </c>
-      <c r="B432" t="s">
-        <v>914</v>
-      </c>
-      <c r="D432" t="s">
-        <v>1028</v>
-      </c>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" t="s">
         <v>435</v>
       </c>
       <c r="B433" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D433" t="s">
         <v>1027</v>
@@ -7015,6 +7003,12 @@
       <c r="A434" t="s">
         <v>436</v>
       </c>
+      <c r="B434" t="s">
+        <v>915</v>
+      </c>
+      <c r="D434" t="s">
+        <v>1025</v>
+      </c>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" t="s">
@@ -7024,13 +7018,19 @@
         <v>916</v>
       </c>
       <c r="D435" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" t="s">
         <v>438</v>
       </c>
+      <c r="B436" t="s">
+        <v>917</v>
+      </c>
+      <c r="D436" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" t="s">
@@ -7042,7 +7042,7 @@
         <v>440</v>
       </c>
       <c r="B438" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D438" t="s">
         <v>1027</v>
@@ -7057,9 +7057,6 @@
       <c r="A440" t="s">
         <v>442</v>
       </c>
-      <c r="B440" t="s">
-        <v>918</v>
-      </c>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" t="s">
@@ -7069,19 +7066,13 @@
         <v>919</v>
       </c>
       <c r="D441" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" t="s">
         <v>444</v>
       </c>
-      <c r="B442" t="s">
-        <v>920</v>
-      </c>
-      <c r="D442" t="s">
-        <v>1026</v>
-      </c>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" t="s">
@@ -7090,24 +7081,27 @@
       <c r="B443" t="s">
         <v>920</v>
       </c>
-      <c r="D443" t="s">
-        <v>1026</v>
-      </c>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" t="s">
         <v>446</v>
       </c>
+      <c r="B444" t="s">
+        <v>921</v>
+      </c>
+      <c r="D444" t="s">
+        <v>1035</v>
+      </c>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" t="s">
         <v>447</v>
       </c>
       <c r="B445" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D445" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -7118,7 +7112,7 @@
         <v>922</v>
       </c>
       <c r="D446" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -7130,30 +7124,33 @@
       <c r="A448" t="s">
         <v>450</v>
       </c>
+      <c r="B448" t="s">
+        <v>923</v>
+      </c>
+      <c r="D448" t="s">
+        <v>1029</v>
+      </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" t="s">
         <v>451</v>
       </c>
+      <c r="B449" t="s">
+        <v>924</v>
+      </c>
+      <c r="D449" t="s">
+        <v>1025</v>
+      </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" t="s">
         <v>452</v>
       </c>
-      <c r="B450" t="s">
-        <v>923</v>
-      </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" t="s">
         <v>453</v>
       </c>
-      <c r="B451" t="s">
-        <v>924</v>
-      </c>
-      <c r="D451" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" t="s">
@@ -7164,11 +7161,20 @@
       <c r="A453" t="s">
         <v>455</v>
       </c>
+      <c r="B453" t="s">
+        <v>925</v>
+      </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" t="s">
         <v>456</v>
       </c>
+      <c r="B454" t="s">
+        <v>926</v>
+      </c>
+      <c r="D454" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" t="s">
@@ -7179,12 +7185,6 @@
       <c r="A456" t="s">
         <v>458</v>
       </c>
-      <c r="B456" t="s">
-        <v>925</v>
-      </c>
-      <c r="D456" t="s">
-        <v>1025</v>
-      </c>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" t="s">
@@ -7200,6 +7200,12 @@
       <c r="A459" t="s">
         <v>461</v>
       </c>
+      <c r="B459" t="s">
+        <v>927</v>
+      </c>
+      <c r="D459" t="s">
+        <v>1025</v>
+      </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" t="s">
@@ -7220,23 +7226,11 @@
       <c r="A463" t="s">
         <v>465</v>
       </c>
-      <c r="B463" t="s">
-        <v>907</v>
-      </c>
-      <c r="D463" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" t="s">
         <v>466</v>
       </c>
-      <c r="B464" t="s">
-        <v>926</v>
-      </c>
-      <c r="D464" t="s">
-        <v>1026</v>
-      </c>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" t="s">
@@ -7248,7 +7242,10 @@
         <v>468</v>
       </c>
       <c r="B466" t="s">
-        <v>927</v>
+        <v>909</v>
+      </c>
+      <c r="D466" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -7271,61 +7268,67 @@
       <c r="A469" t="s">
         <v>471</v>
       </c>
+      <c r="B469" t="s">
+        <v>929</v>
+      </c>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" t="s">
         <v>472</v>
       </c>
       <c r="B470" t="s">
-        <v>929</v>
+        <v>930</v>
+      </c>
+      <c r="D470" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" t="s">
         <v>473</v>
       </c>
-      <c r="B471" t="s">
-        <v>930</v>
-      </c>
-      <c r="D471" t="s">
-        <v>1025</v>
-      </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" t="s">
         <v>474</v>
       </c>
+      <c r="B472" t="s">
+        <v>931</v>
+      </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" t="s">
         <v>475</v>
       </c>
       <c r="B473" t="s">
-        <v>931</v>
+        <v>932</v>
+      </c>
+      <c r="D473" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" t="s">
         <v>476</v>
       </c>
-      <c r="B474" t="s">
-        <v>932</v>
-      </c>
-      <c r="D474" t="s">
-        <v>1025</v>
-      </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" t="s">
         <v>477</v>
       </c>
+      <c r="B475" t="s">
+        <v>933</v>
+      </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" t="s">
         <v>478</v>
       </c>
       <c r="B476" t="s">
-        <v>933</v>
+        <v>934</v>
+      </c>
+      <c r="D476" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -7338,10 +7341,7 @@
         <v>480</v>
       </c>
       <c r="B478" t="s">
-        <v>934</v>
-      </c>
-      <c r="D478" t="s">
-        <v>1024</v>
+        <v>935</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -7354,40 +7354,40 @@
         <v>482</v>
       </c>
       <c r="B480" t="s">
-        <v>935</v>
+        <v>936</v>
+      </c>
+      <c r="D480" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" t="s">
         <v>483</v>
       </c>
-      <c r="B481" t="s">
-        <v>936</v>
-      </c>
-      <c r="D481" t="s">
-        <v>1026</v>
-      </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" t="s">
         <v>484</v>
       </c>
+      <c r="B482" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" t="s">
         <v>485</v>
       </c>
+      <c r="B483" t="s">
+        <v>938</v>
+      </c>
+      <c r="D483" t="s">
+        <v>1027</v>
+      </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" t="s">
         <v>486</v>
       </c>
-      <c r="B484" t="s">
-        <v>937</v>
-      </c>
-      <c r="D484" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" t="s">
@@ -7398,6 +7398,12 @@
       <c r="A486" t="s">
         <v>488</v>
       </c>
+      <c r="B486" t="s">
+        <v>939</v>
+      </c>
+      <c r="D486" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" t="s">
@@ -7443,12 +7449,6 @@
       <c r="A495" t="s">
         <v>497</v>
       </c>
-      <c r="B495" t="s">
-        <v>938</v>
-      </c>
-      <c r="D495" t="s">
-        <v>1023</v>
-      </c>
     </row>
     <row r="496" spans="1:4">
       <c r="A496" t="s">
@@ -7459,6 +7459,12 @@
       <c r="A497" t="s">
         <v>499</v>
       </c>
+      <c r="B497" t="s">
+        <v>940</v>
+      </c>
+      <c r="D497" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" t="s">
@@ -7469,60 +7475,60 @@
       <c r="A499" t="s">
         <v>501</v>
       </c>
-      <c r="B499" t="s">
-        <v>939</v>
-      </c>
-      <c r="D499" t="s">
-        <v>1025</v>
-      </c>
     </row>
     <row r="500" spans="1:4">
       <c r="A500" t="s">
         <v>502</v>
       </c>
-      <c r="B500" t="s">
-        <v>940</v>
-      </c>
-      <c r="D500" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" t="s">
         <v>503</v>
       </c>
+      <c r="B501" t="s">
+        <v>941</v>
+      </c>
+      <c r="D501" t="s">
+        <v>1025</v>
+      </c>
     </row>
     <row r="502" spans="1:4">
       <c r="A502" t="s">
         <v>504</v>
       </c>
       <c r="B502" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D502" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="503" spans="1:4">
       <c r="A503" t="s">
         <v>505</v>
       </c>
-      <c r="B503" t="s">
-        <v>942</v>
-      </c>
-      <c r="D503" t="s">
-        <v>1029</v>
-      </c>
     </row>
     <row r="504" spans="1:4">
       <c r="A504" t="s">
         <v>506</v>
       </c>
+      <c r="B504" t="s">
+        <v>943</v>
+      </c>
+      <c r="D504" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="505" spans="1:4">
       <c r="A505" t="s">
         <v>507</v>
       </c>
+      <c r="B505" t="s">
+        <v>944</v>
+      </c>
+      <c r="D505" t="s">
+        <v>1028</v>
+      </c>
     </row>
     <row r="506" spans="1:4">
       <c r="A506" t="s">
@@ -7538,12 +7544,6 @@
       <c r="A508" t="s">
         <v>510</v>
       </c>
-      <c r="B508" t="s">
-        <v>943</v>
-      </c>
-      <c r="D508" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="509" spans="1:4">
       <c r="A509" t="s">
@@ -7555,7 +7555,10 @@
         <v>512</v>
       </c>
       <c r="B510" t="s">
-        <v>944</v>
+        <v>945</v>
+      </c>
+      <c r="D510" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -7567,35 +7570,38 @@
       <c r="A512" t="s">
         <v>514</v>
       </c>
+      <c r="B512" t="s">
+        <v>946</v>
+      </c>
     </row>
     <row r="513" spans="1:4">
       <c r="A513" t="s">
         <v>515</v>
       </c>
-      <c r="B513" t="s">
-        <v>945</v>
-      </c>
     </row>
     <row r="514" spans="1:4">
       <c r="A514" t="s">
         <v>516</v>
       </c>
-      <c r="B514" t="s">
-        <v>946</v>
-      </c>
-      <c r="D514" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="515" spans="1:4">
       <c r="A515" t="s">
         <v>517</v>
       </c>
+      <c r="B515" t="s">
+        <v>947</v>
+      </c>
     </row>
     <row r="516" spans="1:4">
       <c r="A516" t="s">
         <v>518</v>
       </c>
+      <c r="B516" t="s">
+        <v>948</v>
+      </c>
+      <c r="D516" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="517" spans="1:4">
       <c r="A517" t="s">
@@ -7621,44 +7627,38 @@
       <c r="A521" t="s">
         <v>523</v>
       </c>
-      <c r="B521" t="s">
-        <v>947</v>
-      </c>
-      <c r="D521" t="s">
-        <v>1025</v>
-      </c>
     </row>
     <row r="522" spans="1:4">
       <c r="A522" t="s">
         <v>524</v>
       </c>
-      <c r="B522" t="s">
-        <v>948</v>
-      </c>
-      <c r="D522" t="s">
-        <v>1025</v>
-      </c>
     </row>
     <row r="523" spans="1:4">
       <c r="A523" t="s">
         <v>525</v>
       </c>
+      <c r="B523" t="s">
+        <v>949</v>
+      </c>
+      <c r="D523" t="s">
+        <v>1025</v>
+      </c>
     </row>
     <row r="524" spans="1:4">
       <c r="A524" t="s">
         <v>526</v>
       </c>
+      <c r="B524" t="s">
+        <v>950</v>
+      </c>
+      <c r="D524" t="s">
+        <v>1025</v>
+      </c>
     </row>
     <row r="525" spans="1:4">
       <c r="A525" t="s">
         <v>527</v>
       </c>
-      <c r="B525" t="s">
-        <v>949</v>
-      </c>
-      <c r="D525" t="s">
-        <v>1025</v>
-      </c>
     </row>
     <row r="526" spans="1:4">
       <c r="A526" t="s">
@@ -7670,7 +7670,7 @@
         <v>529</v>
       </c>
       <c r="B527" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D527" t="s">
         <v>1025</v>
@@ -7686,10 +7686,10 @@
         <v>531</v>
       </c>
       <c r="B529" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D529" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -7701,17 +7701,17 @@
       <c r="A531" t="s">
         <v>533</v>
       </c>
+      <c r="B531" t="s">
+        <v>953</v>
+      </c>
+      <c r="D531" t="s">
+        <v>1029</v>
+      </c>
     </row>
     <row r="532" spans="1:4">
       <c r="A532" t="s">
         <v>534</v>
       </c>
-      <c r="B532" t="s">
-        <v>952</v>
-      </c>
-      <c r="D532" t="s">
-        <v>1025</v>
-      </c>
     </row>
     <row r="533" spans="1:4">
       <c r="A533" t="s">
@@ -7722,38 +7722,44 @@
       <c r="A534" t="s">
         <v>536</v>
       </c>
+      <c r="B534" t="s">
+        <v>954</v>
+      </c>
+      <c r="D534" t="s">
+        <v>1025</v>
+      </c>
     </row>
     <row r="535" spans="1:4">
       <c r="A535" t="s">
         <v>537</v>
       </c>
-      <c r="B535" t="s">
-        <v>953</v>
-      </c>
-      <c r="D535" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="536" spans="1:4">
       <c r="A536" t="s">
         <v>538</v>
       </c>
-      <c r="B536" t="s">
-        <v>954</v>
-      </c>
-      <c r="D536" t="s">
-        <v>1029</v>
-      </c>
     </row>
     <row r="537" spans="1:4">
       <c r="A537" t="s">
         <v>539</v>
       </c>
+      <c r="B537" t="s">
+        <v>955</v>
+      </c>
+      <c r="D537" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="538" spans="1:4">
       <c r="A538" t="s">
         <v>540</v>
       </c>
+      <c r="B538" t="s">
+        <v>956</v>
+      </c>
+      <c r="D538" t="s">
+        <v>1028</v>
+      </c>
     </row>
     <row r="539" spans="1:4">
       <c r="A539" t="s">
@@ -7764,12 +7770,6 @@
       <c r="A540" t="s">
         <v>542</v>
       </c>
-      <c r="B540" t="s">
-        <v>955</v>
-      </c>
-      <c r="D540" t="s">
-        <v>1031</v>
-      </c>
     </row>
     <row r="541" spans="1:4">
       <c r="A541" t="s">
@@ -7780,6 +7780,12 @@
       <c r="A542" t="s">
         <v>544</v>
       </c>
+      <c r="B542" t="s">
+        <v>957</v>
+      </c>
+      <c r="D542" t="s">
+        <v>1033</v>
+      </c>
     </row>
     <row r="543" spans="1:4">
       <c r="A543" t="s">
@@ -7800,12 +7806,6 @@
       <c r="A546" t="s">
         <v>548</v>
       </c>
-      <c r="B546" t="s">
-        <v>956</v>
-      </c>
-      <c r="D546" t="s">
-        <v>1024</v>
-      </c>
     </row>
     <row r="547" spans="1:4">
       <c r="A547" t="s">
@@ -7816,67 +7816,70 @@
       <c r="A548" t="s">
         <v>550</v>
       </c>
+      <c r="B548" t="s">
+        <v>958</v>
+      </c>
+      <c r="D548" t="s">
+        <v>1029</v>
+      </c>
     </row>
     <row r="549" spans="1:4">
       <c r="A549" t="s">
         <v>551</v>
       </c>
-      <c r="B549" t="s">
-        <v>957</v>
-      </c>
-      <c r="D549" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="550" spans="1:4">
       <c r="A550" t="s">
         <v>552</v>
       </c>
-      <c r="B550" t="s">
-        <v>958</v>
-      </c>
-      <c r="D550" t="s">
-        <v>1023</v>
-      </c>
     </row>
     <row r="551" spans="1:4">
       <c r="A551" t="s">
         <v>553</v>
       </c>
+      <c r="B551" t="s">
+        <v>959</v>
+      </c>
+      <c r="D551" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="552" spans="1:4">
       <c r="A552" t="s">
         <v>554</v>
       </c>
       <c r="B552" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D552" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="553" spans="1:4">
       <c r="A553" t="s">
         <v>555</v>
       </c>
-      <c r="B553" t="s">
-        <v>960</v>
-      </c>
-      <c r="D553" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="554" spans="1:4">
       <c r="A554" t="s">
         <v>556</v>
       </c>
+      <c r="B554" t="s">
+        <v>961</v>
+      </c>
+      <c r="D554" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="555" spans="1:4">
       <c r="A555" t="s">
         <v>557</v>
       </c>
       <c r="B555" t="s">
-        <v>961</v>
+        <v>962</v>
+      </c>
+      <c r="D555" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -7889,32 +7892,35 @@
         <v>559</v>
       </c>
       <c r="B557" t="s">
-        <v>962</v>
-      </c>
-      <c r="D557" t="s">
-        <v>1023</v>
+        <v>963</v>
       </c>
     </row>
     <row r="558" spans="1:4">
       <c r="A558" t="s">
         <v>560</v>
       </c>
-      <c r="B558" t="s">
-        <v>963</v>
-      </c>
-      <c r="D558" t="s">
-        <v>1024</v>
-      </c>
     </row>
     <row r="559" spans="1:4">
       <c r="A559" t="s">
         <v>561</v>
       </c>
+      <c r="B559" t="s">
+        <v>964</v>
+      </c>
+      <c r="D559" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="560" spans="1:4">
       <c r="A560" t="s">
         <v>562</v>
       </c>
+      <c r="B560" t="s">
+        <v>965</v>
+      </c>
+      <c r="D560" t="s">
+        <v>1029</v>
+      </c>
     </row>
     <row r="561" spans="1:4">
       <c r="A561" t="s">
@@ -7935,23 +7941,11 @@
       <c r="A564" t="s">
         <v>566</v>
       </c>
-      <c r="B564" t="s">
-        <v>964</v>
-      </c>
-      <c r="D564" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="565" spans="1:4">
       <c r="A565" t="s">
         <v>567</v>
       </c>
-      <c r="B565" t="s">
-        <v>965</v>
-      </c>
-      <c r="D565" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="566" spans="1:4">
       <c r="A566" t="s">
@@ -7961,23 +7955,29 @@
         <v>966</v>
       </c>
       <c r="D566" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="567" spans="1:4">
       <c r="A567" t="s">
         <v>569</v>
       </c>
+      <c r="B567" t="s">
+        <v>967</v>
+      </c>
+      <c r="D567" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="568" spans="1:4">
       <c r="A568" t="s">
         <v>570</v>
       </c>
       <c r="B568" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="D568" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="569" spans="1:4">
@@ -7989,6 +7989,12 @@
       <c r="A570" t="s">
         <v>572</v>
       </c>
+      <c r="B570" t="s">
+        <v>969</v>
+      </c>
+      <c r="D570" t="s">
+        <v>1028</v>
+      </c>
     </row>
     <row r="571" spans="1:4">
       <c r="A571" t="s">
@@ -8069,23 +8075,11 @@
       <c r="A586" t="s">
         <v>588</v>
       </c>
-      <c r="B586" t="s">
-        <v>968</v>
-      </c>
-      <c r="D586" t="s">
-        <v>1025</v>
-      </c>
     </row>
     <row r="587" spans="1:4">
       <c r="A587" t="s">
         <v>589</v>
       </c>
-      <c r="B587" t="s">
-        <v>969</v>
-      </c>
-      <c r="D587" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="588" spans="1:4">
       <c r="A588" t="s">
@@ -8094,6 +8088,9 @@
       <c r="B588" t="s">
         <v>970</v>
       </c>
+      <c r="D588" t="s">
+        <v>1025</v>
+      </c>
     </row>
     <row r="589" spans="1:4">
       <c r="A589" t="s">
@@ -8103,18 +8100,27 @@
         <v>971</v>
       </c>
       <c r="D589" t="s">
-        <v>1024</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="590" spans="1:4">
       <c r="A590" t="s">
         <v>592</v>
       </c>
+      <c r="B590" t="s">
+        <v>972</v>
+      </c>
     </row>
     <row r="591" spans="1:4">
       <c r="A591" t="s">
         <v>593</v>
       </c>
+      <c r="B591" t="s">
+        <v>973</v>
+      </c>
+      <c r="D591" t="s">
+        <v>1029</v>
+      </c>
     </row>
     <row r="592" spans="1:4">
       <c r="A592" t="s">
@@ -8145,55 +8151,49 @@
       <c r="A597" t="s">
         <v>599</v>
       </c>
-      <c r="B597" t="s">
-        <v>972</v>
-      </c>
     </row>
     <row r="598" spans="1:4">
       <c r="A598" t="s">
         <v>600</v>
       </c>
-      <c r="B598" t="s">
-        <v>973</v>
-      </c>
-      <c r="C598" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D598" t="s">
-        <v>1023</v>
-      </c>
     </row>
     <row r="599" spans="1:4">
       <c r="A599" t="s">
         <v>601</v>
       </c>
       <c r="B599" t="s">
-        <v>856</v>
-      </c>
-      <c r="D599" t="s">
-        <v>1026</v>
+        <v>974</v>
       </c>
     </row>
     <row r="600" spans="1:4">
       <c r="A600" t="s">
         <v>602</v>
       </c>
+      <c r="B600" t="s">
+        <v>975</v>
+      </c>
+      <c r="C600" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D600" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="601" spans="1:4">
       <c r="A601" t="s">
         <v>603</v>
       </c>
+      <c r="B601" t="s">
+        <v>859</v>
+      </c>
+      <c r="D601" t="s">
+        <v>1027</v>
+      </c>
     </row>
     <row r="602" spans="1:4">
       <c r="A602" t="s">
         <v>604</v>
       </c>
-      <c r="B602" t="s">
-        <v>974</v>
-      </c>
-      <c r="D602" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="603" spans="1:4">
       <c r="A603" t="s">
@@ -8204,17 +8204,17 @@
       <c r="A604" t="s">
         <v>606</v>
       </c>
+      <c r="B604" t="s">
+        <v>976</v>
+      </c>
+      <c r="D604" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="605" spans="1:4">
       <c r="A605" t="s">
         <v>607</v>
       </c>
-      <c r="B605" t="s">
-        <v>975</v>
-      </c>
-      <c r="D605" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="606" spans="1:4">
       <c r="A606" t="s">
@@ -8225,17 +8225,17 @@
       <c r="A607" t="s">
         <v>609</v>
       </c>
+      <c r="B607" t="s">
+        <v>977</v>
+      </c>
+      <c r="D607" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="608" spans="1:4">
       <c r="A608" t="s">
         <v>610</v>
       </c>
-      <c r="B608" t="s">
-        <v>976</v>
-      </c>
-      <c r="D608" t="s">
-        <v>1023</v>
-      </c>
     </row>
     <row r="609" spans="1:4">
       <c r="A609" t="s">
@@ -8246,6 +8246,12 @@
       <c r="A610" t="s">
         <v>612</v>
       </c>
+      <c r="B610" t="s">
+        <v>978</v>
+      </c>
+      <c r="D610" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="611" spans="1:4">
       <c r="A611" t="s">
@@ -8276,20 +8282,11 @@
       <c r="A616" t="s">
         <v>618</v>
       </c>
-      <c r="B616" t="s">
-        <v>977</v>
-      </c>
     </row>
     <row r="617" spans="1:4">
       <c r="A617" t="s">
         <v>619</v>
       </c>
-      <c r="B617" t="s">
-        <v>978</v>
-      </c>
-      <c r="D617" t="s">
-        <v>1029</v>
-      </c>
     </row>
     <row r="618" spans="1:4">
       <c r="A618" t="s">
@@ -8298,9 +8295,6 @@
       <c r="B618" t="s">
         <v>979</v>
       </c>
-      <c r="D618" t="s">
-        <v>1023</v>
-      </c>
     </row>
     <row r="619" spans="1:4">
       <c r="A619" t="s">
@@ -8310,35 +8304,35 @@
         <v>980</v>
       </c>
       <c r="D619" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="620" spans="1:4">
       <c r="A620" t="s">
         <v>622</v>
       </c>
+      <c r="B620" t="s">
+        <v>981</v>
+      </c>
+      <c r="D620" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="621" spans="1:4">
       <c r="A621" t="s">
         <v>623</v>
       </c>
       <c r="B621" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="D621" t="s">
-        <v>1027</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="622" spans="1:4">
       <c r="A622" t="s">
         <v>624</v>
       </c>
-      <c r="B622" t="s">
-        <v>982</v>
-      </c>
-      <c r="D622" t="s">
-        <v>1033</v>
-      </c>
     </row>
     <row r="623" spans="1:4">
       <c r="A623" t="s">
@@ -8348,18 +8342,30 @@
         <v>983</v>
       </c>
       <c r="D623" t="s">
-        <v>1024</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="624" spans="1:4">
       <c r="A624" t="s">
         <v>626</v>
       </c>
+      <c r="B624" t="s">
+        <v>984</v>
+      </c>
+      <c r="D624" t="s">
+        <v>1035</v>
+      </c>
     </row>
     <row r="625" spans="1:4">
       <c r="A625" t="s">
         <v>627</v>
       </c>
+      <c r="B625" t="s">
+        <v>985</v>
+      </c>
+      <c r="D625" t="s">
+        <v>1029</v>
+      </c>
     </row>
     <row r="626" spans="1:4">
       <c r="A626" t="s">
@@ -8420,12 +8426,6 @@
       <c r="A637" t="s">
         <v>639</v>
       </c>
-      <c r="B637" t="s">
-        <v>712</v>
-      </c>
-      <c r="D637" t="s">
-        <v>1022</v>
-      </c>
     </row>
     <row r="638" spans="1:4">
       <c r="A638" t="s">
@@ -8436,49 +8436,49 @@
       <c r="A639" t="s">
         <v>641</v>
       </c>
+      <c r="B639" t="s">
+        <v>708</v>
+      </c>
+      <c r="D639" t="s">
+        <v>1026</v>
+      </c>
     </row>
     <row r="640" spans="1:4">
       <c r="A640" t="s">
         <v>642</v>
       </c>
-      <c r="B640" t="s">
-        <v>984</v>
-      </c>
-      <c r="D640" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="641" spans="1:4">
       <c r="A641" t="s">
         <v>643</v>
       </c>
-      <c r="B641" t="s">
-        <v>985</v>
-      </c>
-      <c r="D641" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="642" spans="1:4">
       <c r="A642" t="s">
         <v>644</v>
       </c>
+      <c r="B642" t="s">
+        <v>986</v>
+      </c>
+      <c r="D642" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="643" spans="1:4">
       <c r="A643" t="s">
         <v>645</v>
       </c>
+      <c r="B643" t="s">
+        <v>987</v>
+      </c>
+      <c r="D643" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="644" spans="1:4">
       <c r="A644" t="s">
         <v>646</v>
       </c>
-      <c r="B644" t="s">
-        <v>986</v>
-      </c>
-      <c r="D644" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="645" spans="1:4">
       <c r="A645" t="s">
@@ -8489,28 +8489,22 @@
       <c r="A646" t="s">
         <v>648</v>
       </c>
+      <c r="B646" t="s">
+        <v>988</v>
+      </c>
+      <c r="D646" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="647" spans="1:4">
       <c r="A647" t="s">
         <v>649</v>
       </c>
-      <c r="B647" t="s">
-        <v>987</v>
-      </c>
-      <c r="D647" t="s">
-        <v>1027</v>
-      </c>
     </row>
     <row r="648" spans="1:4">
       <c r="A648" t="s">
         <v>650</v>
       </c>
-      <c r="B648" t="s">
-        <v>988</v>
-      </c>
-      <c r="D648" t="s">
-        <v>1024</v>
-      </c>
     </row>
     <row r="649" spans="1:4">
       <c r="A649" t="s">
@@ -8520,7 +8514,7 @@
         <v>989</v>
       </c>
       <c r="D649" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="650" spans="1:4">
@@ -8538,16 +8532,22 @@
       <c r="A651" t="s">
         <v>653</v>
       </c>
+      <c r="B651" t="s">
+        <v>991</v>
+      </c>
+      <c r="D651" t="s">
+        <v>1030</v>
+      </c>
     </row>
     <row r="652" spans="1:4">
       <c r="A652" t="s">
         <v>654</v>
       </c>
       <c r="B652" t="s">
-        <v>856</v>
+        <v>992</v>
       </c>
       <c r="D652" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="653" spans="1:4">
@@ -8559,6 +8559,12 @@
       <c r="A654" t="s">
         <v>656</v>
       </c>
+      <c r="B654" t="s">
+        <v>859</v>
+      </c>
+      <c r="D654" t="s">
+        <v>1027</v>
+      </c>
     </row>
     <row r="655" spans="1:4">
       <c r="A655" t="s">
@@ -8574,12 +8580,6 @@
       <c r="A657" t="s">
         <v>659</v>
       </c>
-      <c r="B657" t="s">
-        <v>826</v>
-      </c>
-      <c r="D657" t="s">
-        <v>1025</v>
-      </c>
     </row>
     <row r="658" spans="1:4">
       <c r="A658" t="s">
@@ -8591,10 +8591,10 @@
         <v>661</v>
       </c>
       <c r="B659" t="s">
-        <v>991</v>
+        <v>831</v>
       </c>
       <c r="D659" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="660" spans="1:4">
@@ -8606,6 +8606,12 @@
       <c r="A661" t="s">
         <v>663</v>
       </c>
+      <c r="B661" t="s">
+        <v>993</v>
+      </c>
+      <c r="D661" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="662" spans="1:4">
       <c r="A662" t="s">
@@ -8616,23 +8622,11 @@
       <c r="A663" t="s">
         <v>665</v>
       </c>
-      <c r="B663" t="s">
-        <v>992</v>
-      </c>
-      <c r="D663" t="s">
-        <v>1025</v>
-      </c>
     </row>
     <row r="664" spans="1:4">
       <c r="A664" t="s">
         <v>666</v>
       </c>
-      <c r="B664" t="s">
-        <v>993</v>
-      </c>
-      <c r="D664" t="s">
-        <v>1024</v>
-      </c>
     </row>
     <row r="665" spans="1:4">
       <c r="A665" t="s">
@@ -8649,38 +8643,50 @@
       <c r="A666" t="s">
         <v>668</v>
       </c>
+      <c r="B666" t="s">
+        <v>995</v>
+      </c>
+      <c r="D666" t="s">
+        <v>1029</v>
+      </c>
     </row>
     <row r="667" spans="1:4">
       <c r="A667" t="s">
         <v>669</v>
       </c>
       <c r="B667" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D667" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="668" spans="1:4">
       <c r="A668" t="s">
         <v>670</v>
       </c>
-      <c r="B668" t="s">
-        <v>996</v>
-      </c>
-      <c r="D668" t="s">
-        <v>1023</v>
-      </c>
     </row>
     <row r="669" spans="1:4">
       <c r="A669" t="s">
         <v>671</v>
       </c>
+      <c r="B669" t="s">
+        <v>997</v>
+      </c>
+      <c r="D669" t="s">
+        <v>1028</v>
+      </c>
     </row>
     <row r="670" spans="1:4">
       <c r="A670" t="s">
         <v>672</v>
       </c>
+      <c r="B670" t="s">
+        <v>998</v>
+      </c>
+      <c r="D670" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="671" spans="1:4">
       <c r="A671" t="s">
@@ -8701,17 +8707,11 @@
       <c r="A674" t="s">
         <v>676</v>
       </c>
-      <c r="B674" t="s">
-        <v>997</v>
-      </c>
     </row>
     <row r="675" spans="1:4">
       <c r="A675" t="s">
         <v>677</v>
       </c>
-      <c r="B675" t="s">
-        <v>998</v>
-      </c>
     </row>
     <row r="676" spans="1:4">
       <c r="A676" t="s">
@@ -8720,9 +8720,6 @@
       <c r="B676" t="s">
         <v>999</v>
       </c>
-      <c r="D676" t="s">
-        <v>1022</v>
-      </c>
     </row>
     <row r="677" spans="1:4">
       <c r="A677" t="s">
@@ -8731,9 +8728,6 @@
       <c r="B677" t="s">
         <v>1000</v>
       </c>
-      <c r="D677" t="s">
-        <v>1024</v>
-      </c>
     </row>
     <row r="678" spans="1:4">
       <c r="A678" t="s">
@@ -8742,6 +8736,9 @@
       <c r="B678" t="s">
         <v>1001</v>
       </c>
+      <c r="D678" t="s">
+        <v>1026</v>
+      </c>
     </row>
     <row r="679" spans="1:4">
       <c r="A679" t="s">
@@ -8750,9 +8747,6 @@
       <c r="B679" t="s">
         <v>1002</v>
       </c>
-      <c r="C679" t="s">
-        <v>1017</v>
-      </c>
       <c r="D679" t="s">
         <v>1029</v>
       </c>
@@ -8772,6 +8766,12 @@
       <c r="B681" t="s">
         <v>1004</v>
       </c>
+      <c r="C681" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D681" t="s">
+        <v>1028</v>
+      </c>
     </row>
     <row r="682" spans="1:4">
       <c r="A682" t="s">
@@ -8786,13 +8786,7 @@
         <v>685</v>
       </c>
       <c r="B683" t="s">
-        <v>685</v>
-      </c>
-      <c r="C683" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D683" t="s">
-        <v>1023</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="684" spans="1:4">
@@ -8800,10 +8794,7 @@
         <v>686</v>
       </c>
       <c r="B684" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D684" t="s">
-        <v>1024</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -8811,10 +8802,13 @@
         <v>687</v>
       </c>
       <c r="B685" t="s">
-        <v>1007</v>
+        <v>687</v>
+      </c>
+      <c r="C685" t="s">
+        <v>1023</v>
       </c>
       <c r="D685" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -8824,6 +8818,9 @@
       <c r="B686" t="s">
         <v>1008</v>
       </c>
+      <c r="D686" t="s">
+        <v>1029</v>
+      </c>
     </row>
     <row r="687" spans="1:4">
       <c r="A687" t="s">
@@ -8832,6 +8829,9 @@
       <c r="B687" t="s">
         <v>1009</v>
       </c>
+      <c r="D687" t="s">
+        <v>1025</v>
+      </c>
     </row>
     <row r="688" spans="1:4">
       <c r="A688" t="s">
@@ -8856,46 +8856,52 @@
       <c r="B690" t="s">
         <v>1012</v>
       </c>
-      <c r="D690" t="s">
-        <v>1023</v>
-      </c>
     </row>
     <row r="691" spans="1:4">
       <c r="A691" t="s">
         <v>693</v>
       </c>
+      <c r="B691" t="s">
+        <v>1013</v>
+      </c>
     </row>
     <row r="692" spans="1:4">
       <c r="A692" t="s">
         <v>694</v>
       </c>
       <c r="B692" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D692" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="693" spans="1:4">
       <c r="A693" t="s">
         <v>695</v>
       </c>
-      <c r="B693" t="s">
-        <v>723</v>
-      </c>
-      <c r="D693" t="s">
-        <v>1024</v>
-      </c>
     </row>
     <row r="694" spans="1:4">
       <c r="A694" t="s">
         <v>696</v>
       </c>
+      <c r="B694" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D694" t="s">
+        <v>1030</v>
+      </c>
     </row>
     <row r="695" spans="1:4">
       <c r="A695" t="s">
         <v>697</v>
       </c>
+      <c r="B695" t="s">
+        <v>735</v>
+      </c>
+      <c r="D695" t="s">
+        <v>1029</v>
+      </c>
     </row>
     <row r="696" spans="1:4">
       <c r="A696" t="s">
@@ -8906,12 +8912,6 @@
       <c r="A697" t="s">
         <v>699</v>
       </c>
-      <c r="B697" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D697" t="s">
-        <v>1025</v>
-      </c>
     </row>
     <row r="698" spans="1:4">
       <c r="A698" t="s">
@@ -8923,10 +8923,10 @@
         <v>701</v>
       </c>
       <c r="B699" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D699" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="700" spans="1:4">
@@ -8937,6 +8937,22 @@
     <row r="701" spans="1:4">
       <c r="A701" t="s">
         <v>703</v>
+      </c>
+      <c r="B701" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D701" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4">
+      <c r="A702" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4">
+      <c r="A703" t="s">
+        <v>705</v>
       </c>
     </row>
   </sheetData>
